--- a/class_data.xlsx
+++ b/class_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucp13342\Documents\GitHub\DriesJarijch.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68B595E-94B6-433D-BF22-22A0F22E0548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2577C7D-EC1D-4BAB-B9A8-2243926E1153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-2205" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>classes</t>
   </si>
@@ -84,9 +84,6 @@
     <t>nl_caution</t>
   </si>
   <si>
-    <t>Je bent een full-caster: Deze classes zijn doorgaans wat moeilijker. Maar zeker te leren.</t>
-  </si>
-  <si>
     <t>Je bent ongetwijfeld de beste class om mensen in leven te houden, maar dat betekend niet dat dat je enige rol is. De cleric heeft heel goede toegang tot damage spells, buff spells en heal spells.</t>
   </si>
   <si>
@@ -96,15 +93,9 @@
     <t>Een boek lezen voor magie is niet voor jou, nee. Jij krijgt magie door je geloof. Dat kan een god zijn, geloof in de kracht van vriendschap, of geloof in pure karma. Laat je hier vooral niet beperken in creativiteit! Misschien ben je zelfs een aanhanger van de dwergen sekte van 'Durnald K. Strump'. Je class is een goede mix van pijn doen tegen vijanden en de pijn van je vrienden weghalen/voorkomen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Je bent een full-caster: Deze classes zijn doorgaans wat moeilijker. Maar zeker te leren. </t>
-  </si>
-  <si>
     <t>Je haalt je magische krachten uit de natuur. Sommigen beschrijven je als de "Hippie" versie van een cleric en dat is opzich niet fout. Deze class kan enorm veel en ook enorm vroeg al. Je kan in dieren veranderen, spreuken gebruiken en heel het slagveld overhoop gooien (hopelijk in jouw voordeel). De perfecte optie voor als je 'team Jacob' was</t>
   </si>
   <si>
-    <t>De druid kan zowat welke rol vullen binnen een groep, afhankelijk van waar je in specialiseerd. Deze flexibiliteit kan soms wel heel overweldigend zijn. In  de juiste handen ben je mogelijks de sterkste class in het spell, maar zelfs in de foute handen kan je de rest makkelijk bijhouden. Kies op eigen risico!</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sommige mensen hebben een boek nodig om spreuken te gebruiken. Anderen hebben hun geloof. Maar jij gebruikt kunst, speciale jongen/meid dat je bent. De vorm van kunst maakt ook niet uit. Schilder je een vuurbal die ineens echt word? Scheld je iemand zo hard uit dat ze bewusteloos vallen? Of bespeel je een kazoo die mensen hypnotiseerd? Allemaal een optie met deze class. </t>
   </si>
   <si>
@@ -160,6 +151,87 @@
   </si>
   <si>
     <t>Je bent een glazen kannon in combat en een Zwitsers zakmes buiten combat. Je leert veel spells, kan er meer casten dan andere classes en je kan er zelfs bijleren uit scrolls. Als je volledig wil ingaan op spells, is dit de class voor jou! Deze class kan enorm veel, enorm snel en je zal veel keuzes moeten maken met je spells. De class is dus heel flexibel, maar dat maakt ze ook enorm ingewikkeld als je nog nooit DnD gespeeld heb. Kies op eigen risico.</t>
+  </si>
+  <si>
+    <t>You are a full-caster: these classes are usually a bit more difficult, but definitely learnable.</t>
+  </si>
+  <si>
+    <t>Je bent een full-caster: deze classes zijn doorgaans wat moeilijker. Maar zeker te leren.</t>
+  </si>
+  <si>
+    <t>You know the saying: "If you're not strong, you have to be smart"? Luckily, you're strong. When you fight, you get so angry that you take less damage and hit harder. Your only weakness is that you have to get close to someone first.</t>
+  </si>
+  <si>
+    <t>The barbarian is the number 1 tank in the game. You have the most HP and will be the last to go down. Outside of combat your options are limited. A good class for a beginner.</t>
+  </si>
+  <si>
+    <t>Some people need a book to cast spells. Others have their faith. But you use art, you special little snowflake. The form of art doesn't matter either. Do you paint a fireball that suddenly becomes real? Do you curse someone out so hard that they fall unconscious? Or do you play a kazoo that hypnotizes people? All are an option with this class.</t>
+  </si>
+  <si>
+    <t>The Bard is a very good support class, you won't do the most damage yourself, but you will make it much easier for others to do so. You also have a lot of 'out of combat' options to make life much easier for your team. A good class for a beginner.</t>
+  </si>
+  <si>
+    <t>Reading a spellbook is not for you, no. You get magic through your belief. That could be faith in a god, belief in the power of friendship, or belief in pure karma. Don't let this limit your creativity! Maybe you're even a follower of the dwarven cult of 'Durnald K. Strump'. Your class is a good mix of inflicting pain on enemies and relieving/preventing pain from your friends.</t>
+  </si>
+  <si>
+    <t>You are undoubtedly the best class to keep people alive, but that doesn't mean that's your only role. The cleric has very good access to damage spells, buff spells and heal spells.</t>
+  </si>
+  <si>
+    <t>You draw your magical powers from nature. Some describe you as the "Hippie" version of a cleric and that's not strictly untrue. This class can do a lot, and very early on too. You can transform into animals, cast spells and turn the entire battlefield upside down (hopefully to your advantage). The perfect option if you are 'team Jacob'.</t>
+  </si>
+  <si>
+    <t>The Druid can fill just about any role within a group, depending on what you specialize in. This flexibility can be overwhelming at times. In the right hands, you can potentially be the strongest class in the game, but even in the wrong hands, you can easily keep up with the rest. Choose at your own risk!</t>
+  </si>
+  <si>
+    <t>De druid kan zowat welke rol vullen binnen een groep, afhankelijk van waar je in specialiseerd. Deze flexibiliteit kan soms wel heel overweldigend zijn. In  de juiste handen ben je mogelijks de sterkste class in het spel, maar zelfs in de foute handen kan je de rest makkelijk bijhouden. Kies op eigen risico!</t>
+  </si>
+  <si>
+    <t>You hit people with a sword or shoot them with a bow. And then again, and again and again, etc... You are as your name says: a fighter. Fighters can keep fighting and are veeeery flexible in what weapons they can use, and how you use them.</t>
+  </si>
+  <si>
+    <t>This is, without a doubt, the easiest class in the game. But that doesn't make it any less fun. You get more attacks than any other class and you're unstoppable in combat. You also get a lot more stat upgrades than other classes, so you can make of it what you want. A perfect class for a beginner.</t>
+  </si>
+  <si>
+    <t>You are a karate ninja with this class and you are not afraid to show it. You can run over water and up walls, beat people up with your bare fists, catch arrows and bullets out of the air and throw them back, and much more. You do this using "Ki". If you often daydream about being an 'action movie' star, then this is the perfect choice for you.</t>
+  </si>
+  <si>
+    <t>The Monk trades heartiness for mobility. You specialize (mostly) in 'Close-Up-Combat', and you have a ton of options to get there and survive.</t>
+  </si>
+  <si>
+    <t>The Cleric draws their power from their faith, you draw yours from an oath (a promise). This can range from a promise to "protect your loved ones" to "I want avenge the murder of my parents" or even "I will make sure everyone goes vegan". You have magic at your disposal, but you are also very good with a sword. Finally, you also gain an aura that strengthens your friends. This can be in the form of magical radiance, natural charisma, or even body odor, give it the twist you want.</t>
+  </si>
+  <si>
+    <t>This is a good in-between option if you want to use a bit of magic, but still want to be in the thick of the fight. Your auras will enhance other melee classes, so they will thank you. Think of it as a nice in-between option between the Barbarian and the Cleric. PS: Enjoy the crits ;)</t>
+  </si>
+  <si>
+    <t>The Ranger can be seen as a variation on the Paladin. Only now you are also Legolas. You also have access to a bit of magic, but that also works intuitively with how you fight. You get your magic from your connection with the world around you. Usually this class also has a close bond with animals. Depending on your specialization, you can even have companion animals that follow you around and obey you (have fun being snow white).</t>
+  </si>
+  <si>
+    <t>You are more of a mix between a Rogue/Fighter and a Druid. This class fulfills several roles that other classes also fulfill (and sometimes even better). This class is good if you want a taste of magic but also want to be in the fight (and want to have a magical pet). Perfect if you find the Druid a bit too intimidating, but you like the style. A good class for a beginner.</t>
+  </si>
+  <si>
+    <t>You are an assassin. You lurk in the shadows looking for the moment your opponent is distracted. Then you shoot an arrow straight into their neck or stab a knife into their kidneys. You are extremely good at causing pain and avoiding it yourself. Even in the most adverse situations you still manage to slip away. You are also the perfect kleptomaniac. Stealing and breaking and entering is what you are made for.</t>
+  </si>
+  <si>
+    <t>This class can be played both from far and close. You attack less often, but in return you do much more damage. Painful if you miss, great if you hit. This class focuses mainly on positioning. Outside of combat you can also do a lot. In that area you share some talents with the Bard, and to a lesser extent the Ranger. A good class for a beginner.</t>
+  </si>
+  <si>
+    <t>You are literally a walking example of someone who was born lucky (a nepo-baby). Some study hard for their magic, others make deals or devote themselves to their faith. You were born with your powers, lucky bitch. So you don't know many spells, but you have the ability to manipulate them. For example, you can make them harder to dodge, or make them reach twice as far, etc. You are terrible at one thing: taking a punch. If someone looks at you too hard, you risk dying. But if you survive, you can use your magic to blow everyone to smitherines.</t>
+  </si>
+  <si>
+    <t>Together with the Wizard, you can easily do the most damage in the game (especially at later levels and on large groups). Your options are more limited, but much more impactful, which makes this class relatively easier to play. An okay class for a beginner.</t>
+  </si>
+  <si>
+    <t>You didn't have the interest to study in school, so you went with the next logical option: A pact with a demon, duh! :D. You borrow your magical powers from a dark entity, so you don't have the most control over your spells, but it gets by. You have a lot of choices with this class, you will rarely encounter two warlocks that look the same.</t>
+  </si>
+  <si>
+    <t>This class has a lot of flexibility in building your character, but once the choices are made: not very complex, but good at what it does (kind of like the Fighter). The introduction of new concepts happen at a much easier to understand pace here. Just don't worry too much about the 'best' choices. An okay class for a beginner.</t>
+  </si>
+  <si>
+    <t>Okay, so every magic class up until now hasn't had to study for their magic... You do, tough luck. But luckily you're really good at it. You may remember me saying the barbarian was strong? You're smart... really smart. You keep track of all your spells in written form. Usually this is in the form of a book or a scroll, but who knows, maybe you've come across a magical object called an "apple watch" that you can store spells in. Unfortunately, you're "all brains". You're just as vulnerable as the sorcerer, so you better hope a barbarian gets between you and the dragon when it breathes fire. Upside: if you survive you can fry the dragon alive, banish it to another dimension, or (if you're strong enough) even wish the dragon never existed.</t>
+  </si>
+  <si>
+    <t>You are a glass cannon in combat and a Swiss army knife outside of combat. You learn a lot of spells, can cast more than other classes and can even learn more from scrolls. If you want to fully immerse yourself in spells, this is the class for you! This class can do a lot, very fast and you will have to make a lot of choices with your spells. So the class is very flexible, but that also makes it very complicated if you have never played DnD before. Choose at your own risk.</t>
   </si>
 </sst>
 </file>
@@ -482,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +563,7 @@
     <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="90.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="83.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="72.77734375" customWidth="1"/>
+    <col min="4" max="4" width="72.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="67.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="80.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="70.77734375" style="1" customWidth="1"/>
@@ -524,147 +596,234 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
